--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-8036.55201569885</v>
+        <v>-18148.64551712239</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24728256.75116414</v>
+        <v>24061417.37221273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15140382.24954452</v>
+        <v>14486812.97423427</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2947694.850402433</v>
+        <v>3181848.49574796</v>
       </c>
     </row>
     <row r="11">
@@ -2081,25 +2083,25 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>110.377644917217</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>72.31274425356753</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2138,7 +2140,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2239,25 +2241,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>106.9342672712792</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>39.31023063472703</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2327,10 +2329,10 @@
         <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>420.8729399924937</v>
+        <v>8.218664693195375</v>
       </c>
       <c r="G23" t="n">
-        <v>2.995605349316558</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H24" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,10 +2481,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
@@ -2491,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>82.13022054491954</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>272.1038797892121</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>71.77132399094387</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,13 +2614,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>153.2034681258824</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>118.8116256512757</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.8154758750487</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>184.9088812260089</v>
       </c>
       <c r="G29" t="n">
-        <v>230.4892264010518</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2849,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -2953,19 +2955,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>32.55584930570005</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,13 +3012,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>167.402899104849</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3032,19 +3034,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>253.723970453871</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>294.8896947407055</v>
+        <v>20.77140261150761</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3125,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H33" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>18.67775105764677</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3244,7 +3246,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>155.2137979687706</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>370.5703066376465</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3326,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3360,7 +3362,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H36" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>76.75914552461525</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>422.6317226868329</v>
+        <v>35.62225731619074</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>79.33674937622952</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3560,13 +3562,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3597,7 +3599,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H39" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3658,13 +3660,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>92.08906614418041</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
@@ -3673,13 +3675,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>65.35188309575121</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3737,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>173.6367412348448</v>
+        <v>29.62786375350941</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H42" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>154.824578154341</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>104.4901765374784</v>
       </c>
     </row>
     <row r="44">
@@ -3986,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>39.61379239141474</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4104,25 +4106,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="46">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>44.93415033890867</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1366.319142682382</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="C20" t="n">
-        <v>939.4184126956825</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="D20" t="n">
-        <v>939.4184126956825</v>
+        <v>481.1698128667722</v>
       </c>
       <c r="E20" t="n">
-        <v>939.4184126956825</v>
+        <v>481.1698128667722</v>
       </c>
       <c r="F20" t="n">
-        <v>514.2942308850827</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G20" t="n">
-        <v>109.9551684745313</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H20" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L20" t="n">
-        <v>493.6978991635576</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M20" t="n">
-        <v>950.4838058662885</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N20" t="n">
-        <v>1271.257381456703</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O20" t="n">
-        <v>1271.257381456703</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="P20" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q20" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T20" t="n">
-        <v>1624.67405208597</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U20" t="n">
-        <v>1366.319142682382</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V20" t="n">
-        <v>1366.319142682382</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W20" t="n">
-        <v>1366.319142682382</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="X20" t="n">
-        <v>1366.319142682382</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="Y20" t="n">
-        <v>1366.319142682382</v>
+        <v>904.4624336817719</v>
       </c>
     </row>
     <row r="21">
@@ -5805,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H21" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J21" t="n">
-        <v>44.35863542273854</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K21" t="n">
-        <v>44.35863542273854</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L21" t="n">
-        <v>501.1445421254694</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M21" t="n">
-        <v>957.9304488282003</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N21" t="n">
-        <v>1414.716355530931</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O21" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P21" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q21" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5859,7 +5861,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
         <v>1437.627243819906</v>
@@ -5868,13 +5870,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>386.6237704712602</v>
+        <v>582.9245049325332</v>
       </c>
       <c r="C22" t="n">
-        <v>386.6237704712602</v>
+        <v>410.9519418114492</v>
       </c>
       <c r="D22" t="n">
-        <v>386.6237704712602</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="E22" t="n">
-        <v>220.4155646241138</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="F22" t="n">
-        <v>180.7082609526723</v>
+        <v>302.9375304263186</v>
       </c>
       <c r="G22" t="n">
-        <v>180.7082609526723</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="H22" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K22" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L22" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>822.0807715636367</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N22" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O22" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P22" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q22" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T22" t="n">
-        <v>1602.260275267237</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U22" t="n">
-        <v>1602.260275267237</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V22" t="n">
-        <v>1320.548807875266</v>
+        <v>1516.849542336539</v>
       </c>
       <c r="W22" t="n">
-        <v>1045.696404047779</v>
+        <v>1241.997138509052</v>
       </c>
       <c r="X22" t="n">
-        <v>803.1325074935838</v>
+        <v>999.4332419548567</v>
       </c>
       <c r="Y22" t="n">
-        <v>576.7897391833259</v>
+        <v>773.0904736445988</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1741.232328914477</v>
+        <v>1321.383964622947</v>
       </c>
       <c r="C23" t="n">
-        <v>1314.331598927777</v>
+        <v>894.4832346362471</v>
       </c>
       <c r="D23" t="n">
-        <v>891.0389781127776</v>
+        <v>471.1906138212473</v>
       </c>
       <c r="E23" t="n">
-        <v>465.0620382606352</v>
+        <v>45.21367396910489</v>
       </c>
       <c r="F23" t="n">
-        <v>39.93785645003538</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
         <v>399.5154512777223</v>
@@ -5993,16 +5995,16 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L23" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M23" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N23" t="n">
-        <v>1313.087264683184</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O23" t="n">
-        <v>1769.873171385915</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P23" t="n">
         <v>1845.599623041337</v>
@@ -6048,46 +6050,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J24" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K24" t="n">
-        <v>765.3953884431487</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L24" t="n">
-        <v>1222.18129514588</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.18129514588</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="N24" t="n">
-        <v>1222.18129514588</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="O24" t="n">
-        <v>1678.967201848611</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="P24" t="n">
-        <v>1845.599623041337</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="Q24" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6121,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>629.9631182453602</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C25" t="n">
-        <v>457.9905551242762</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D25" t="n">
-        <v>457.9905551242762</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E25" t="n">
-        <v>457.9905551242762</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F25" t="n">
-        <v>286.1287808988366</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G25" t="n">
-        <v>119.8718111930687</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H25" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K25" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M25" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N25" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O25" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
         <v>1845.599623041337</v>
@@ -6181,16 +6183,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V25" t="n">
-        <v>1563.888155649366</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W25" t="n">
-        <v>1289.035751821879</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X25" t="n">
-        <v>1046.471855267684</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y25" t="n">
-        <v>820.1290869574259</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="26">
@@ -6200,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>462.8889323129692</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C26" t="n">
-        <v>462.8889323129692</v>
+        <v>1418.698893054637</v>
       </c>
       <c r="D26" t="n">
-        <v>462.8889323129692</v>
+        <v>995.406272239637</v>
       </c>
       <c r="E26" t="n">
-        <v>36.91199246082674</v>
+        <v>569.4293323874946</v>
       </c>
       <c r="F26" t="n">
-        <v>36.91199246082674</v>
+        <v>144.3051505768948</v>
       </c>
       <c r="G26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K26" t="n">
-        <v>815.1719019525203</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L26" t="n">
-        <v>815.1719019525203</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M26" t="n">
-        <v>1271.957808655251</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N26" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O26" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P26" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
@@ -6260,16 +6262,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V26" t="n">
-        <v>1690.848645136405</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W26" t="n">
-        <v>1294.457295436752</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X26" t="n">
-        <v>882.7372966044993</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y26" t="n">
-        <v>882.7372966044993</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="27">
@@ -6279,46 +6281,46 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C27" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H27" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J27" t="n">
-        <v>44.35863542273854</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K27" t="n">
-        <v>44.35863542273854</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="L27" t="n">
-        <v>501.1445421254694</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M27" t="n">
-        <v>957.9304488282003</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N27" t="n">
-        <v>1414.716355530931</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O27" t="n">
-        <v>1414.716355530931</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P27" t="n">
         <v>1845.599623041337</v>
@@ -6333,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6342,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="28">
@@ -6358,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>180.7082609526723</v>
+        <v>904.815522072847</v>
       </c>
       <c r="C28" t="n">
-        <v>180.7082609526723</v>
+        <v>904.815522072847</v>
       </c>
       <c r="D28" t="n">
-        <v>180.7082609526723</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E28" t="n">
-        <v>180.7082609526723</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F28" t="n">
-        <v>180.7082609526723</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K28" t="n">
-        <v>263.4395936666639</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L28" t="n">
-        <v>618.1289149610848</v>
+        <v>303.8948463526237</v>
       </c>
       <c r="M28" t="n">
-        <v>1009.314709931336</v>
+        <v>695.0806413228745</v>
       </c>
       <c r="N28" t="n">
-        <v>1072.572152198911</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O28" t="n">
-        <v>1428.000280878674</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P28" t="n">
         <v>1718.599492800575</v>
@@ -6406,28 +6408,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S28" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T28" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U28" t="n">
-        <v>1104.902165973849</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V28" t="n">
-        <v>823.1906985818782</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="W28" t="n">
-        <v>548.3382947543912</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="X28" t="n">
-        <v>305.7743982001963</v>
+        <v>1321.324259095171</v>
       </c>
       <c r="Y28" t="n">
-        <v>180.7082609526723</v>
+        <v>1094.981490784913</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1845.599623041337</v>
+        <v>662.9245738309462</v>
       </c>
       <c r="C29" t="n">
-        <v>1418.698893054637</v>
+        <v>662.9245738309462</v>
       </c>
       <c r="D29" t="n">
-        <v>1418.698893054637</v>
+        <v>662.9245738309462</v>
       </c>
       <c r="E29" t="n">
-        <v>992.7219532024945</v>
+        <v>662.9245738309462</v>
       </c>
       <c r="F29" t="n">
-        <v>567.5977713918948</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="G29" t="n">
-        <v>334.7803709867919</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
         <v>399.5154512777223</v>
@@ -6467,22 +6469,22 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L29" t="n">
-        <v>856.3013579804531</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M29" t="n">
-        <v>856.3013579804531</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="N29" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O29" t="n">
-        <v>1769.873171385915</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q29" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
@@ -6497,16 +6499,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V29" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W29" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="X29" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="Y29" t="n">
-        <v>1845.599623041337</v>
+        <v>1082.772938122476</v>
       </c>
     </row>
     <row r="30">
@@ -6522,46 +6524,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J30" t="n">
-        <v>36.91199246082674</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K30" t="n">
-        <v>493.6978991635576</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L30" t="n">
-        <v>950.4838058662885</v>
+        <v>1222.18129514588</v>
       </c>
       <c r="M30" t="n">
-        <v>950.4838058662885</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N30" t="n">
-        <v>1407.269712569019</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O30" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="P30" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q30" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>136.6805607205508</v>
+        <v>814.797042285217</v>
       </c>
       <c r="C31" t="n">
-        <v>136.6805607205508</v>
+        <v>814.797042285217</v>
       </c>
       <c r="D31" t="n">
-        <v>136.6805607205508</v>
+        <v>651.4802694119877</v>
       </c>
       <c r="E31" t="n">
-        <v>136.6805607205508</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F31" t="n">
-        <v>136.6805607205508</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G31" t="n">
-        <v>136.6805607205508</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H31" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
         <v>94.40332068498475</v>
@@ -6625,16 +6627,16 @@
         <v>320.9309218908219</v>
       </c>
       <c r="L31" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M31" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N31" t="n">
-        <v>1199.572282439673</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O31" t="n">
-        <v>1555.000411119436</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P31" t="n">
         <v>1845.599623041337</v>
@@ -6643,28 +6645,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S31" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T31" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U31" t="n">
-        <v>1104.902165973849</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V31" t="n">
-        <v>823.1906985818782</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W31" t="n">
-        <v>548.3382947543912</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="X31" t="n">
-        <v>305.7743982001963</v>
+        <v>1041.139810595475</v>
       </c>
       <c r="Y31" t="n">
-        <v>136.6805607205508</v>
+        <v>814.797042285217</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1845.599623041337</v>
+        <v>1335.895058869367</v>
       </c>
       <c r="C32" t="n">
-        <v>1418.698893054637</v>
+        <v>908.9943288826676</v>
       </c>
       <c r="D32" t="n">
-        <v>995.4062722396372</v>
+        <v>908.9943288826676</v>
       </c>
       <c r="E32" t="n">
-        <v>995.4062722396372</v>
+        <v>483.0173890305251</v>
       </c>
       <c r="F32" t="n">
-        <v>739.1194333973433</v>
+        <v>57.89320721992533</v>
       </c>
       <c r="G32" t="n">
-        <v>334.7803709867919</v>
+        <v>57.89320721992533</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K32" t="n">
-        <v>814.4714747539724</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L32" t="n">
+        <v>357.6855680512415</v>
+      </c>
+      <c r="M32" t="n">
+        <v>814.4714747539723</v>
+      </c>
+      <c r="N32" t="n">
         <v>1271.257381456703</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1728.043288159434</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1728.043288159434</v>
       </c>
       <c r="O32" t="n">
         <v>1728.043288159434</v>
@@ -6725,25 +6727,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X32" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.599623041337</v>
+        <v>1335.895058869367</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C33" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J33" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K33" t="n">
-        <v>772.8420314050605</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L33" t="n">
-        <v>772.8420314050605</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M33" t="n">
-        <v>850.0084995511718</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N33" t="n">
-        <v>850.0084995511718</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O33" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P33" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q33" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6807,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6816,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="34">
@@ -6832,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>823.1906985818782</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="C34" t="n">
-        <v>823.1906985818782</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D34" t="n">
-        <v>659.8739257086489</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E34" t="n">
-        <v>493.6657198615025</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F34" t="n">
-        <v>321.8039456360628</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G34" t="n">
-        <v>155.546975930295</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H34" t="n">
         <v>136.6805607205508</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
-        <v>76.20565529896515</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L34" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M34" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N34" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O34" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P34" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q34" t="n">
         <v>1845.599623041337</v>
@@ -6892,16 +6894,16 @@
         <v>1104.902165973849</v>
       </c>
       <c r="V34" t="n">
-        <v>823.1906985818782</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="W34" t="n">
-        <v>823.1906985818782</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="X34" t="n">
-        <v>823.1906985818782</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="Y34" t="n">
-        <v>823.1906985818782</v>
+        <v>948.1205518639796</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>36.91199246082674</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C35" t="n">
-        <v>36.91199246082674</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D35" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E35" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
@@ -6941,22 +6943,22 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L35" t="n">
-        <v>815.1719019525203</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M35" t="n">
-        <v>1271.957808655251</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N35" t="n">
-        <v>1271.957808655251</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O35" t="n">
-        <v>1271.957808655251</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P35" t="n">
-        <v>1271.957808655251</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q35" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R35" t="n">
         <v>1845.599623041337</v>
@@ -6965,22 +6967,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T35" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U35" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1624.67405208597</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W35" t="n">
-        <v>1228.282702386317</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="X35" t="n">
-        <v>816.5627035540642</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="Y35" t="n">
-        <v>411.2254335089546</v>
+        <v>1738.206464925269</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6992,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C36" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J36" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K36" t="n">
-        <v>316.0561247023297</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L36" t="n">
-        <v>316.0561247023297</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M36" t="n">
-        <v>772.8420314050605</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N36" t="n">
-        <v>1229.627938107791</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O36" t="n">
-        <v>1229.627938107791</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P36" t="n">
         <v>1388.813716338606</v>
@@ -7044,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7053,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="37">
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>784.8037789907503</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C37" t="n">
-        <v>784.8037789907503</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D37" t="n">
         <v>784.8037789907503</v>
@@ -7090,10 +7092,10 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>76.20565529896515</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
         <v>76.20565529896515</v>
@@ -7117,28 +7119,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R37" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1628.425962247645</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T37" t="n">
-        <v>1385.086614473545</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U37" t="n">
-        <v>1104.902165973849</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V37" t="n">
-        <v>1027.367675544945</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W37" t="n">
-        <v>1027.367675544945</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X37" t="n">
-        <v>784.8037789907503</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y37" t="n">
-        <v>784.8037789907503</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>889.7896622996691</v>
+        <v>72.8940705579891</v>
       </c>
       <c r="C38" t="n">
-        <v>462.8889323129692</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D38" t="n">
-        <v>462.8889323129692</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L38" t="n">
-        <v>493.6978991635576</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M38" t="n">
-        <v>950.4838058662885</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="N38" t="n">
-        <v>1407.269712569019</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="O38" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P38" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q38" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1765.461492358277</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T38" t="n">
-        <v>1544.53592140291</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U38" t="n">
-        <v>1286.181011999322</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V38" t="n">
-        <v>1286.181011999322</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W38" t="n">
-        <v>889.7896622996691</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="X38" t="n">
-        <v>889.7896622996691</v>
+        <v>492.7424348495192</v>
       </c>
       <c r="Y38" t="n">
-        <v>889.7896622996691</v>
+        <v>492.7424348495192</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C39" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J39" t="n">
         <v>316.0561247023297</v>
       </c>
       <c r="K39" t="n">
-        <v>772.8420314050605</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L39" t="n">
-        <v>1229.627938107791</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M39" t="n">
-        <v>1686.413844810522</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N39" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O39" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P39" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7281,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7290,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>612.9665387815182</v>
+        <v>1041.139810595475</v>
       </c>
       <c r="C40" t="n">
-        <v>440.9939756604342</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D40" t="n">
-        <v>440.9939756604342</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E40" t="n">
-        <v>274.7857698132877</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F40" t="n">
-        <v>102.9239955878482</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G40" t="n">
-        <v>102.9239955878482</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H40" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
         <v>263.4395936666639</v>
@@ -7342,10 +7344,10 @@
         <v>1009.314709931336</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878674</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P40" t="n">
         <v>1718.599492800575</v>
@@ -7360,22 +7362,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T40" t="n">
-        <v>1602.260275267237</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U40" t="n">
-        <v>1602.260275267237</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V40" t="n">
-        <v>1320.548807875266</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W40" t="n">
-        <v>1045.696404047779</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="X40" t="n">
-        <v>803.1325074935838</v>
+        <v>1041.139810595475</v>
       </c>
       <c r="Y40" t="n">
-        <v>803.1325074935838</v>
+        <v>1041.139810595475</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>36.91199246082674</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="C41" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D41" t="n">
-        <v>36.91199246082674</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E41" t="n">
-        <v>36.91199246082674</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
@@ -7415,46 +7417,46 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>856.3013579804531</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="M41" t="n">
-        <v>932.7282368344229</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="N41" t="n">
-        <v>932.7282368344229</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="O41" t="n">
-        <v>932.7282368344229</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P41" t="n">
-        <v>1389.514143537154</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q41" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U41" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V41" t="n">
-        <v>1670.208975329372</v>
+        <v>1711.305193809922</v>
       </c>
       <c r="W41" t="n">
-        <v>1273.817625629719</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="X41" t="n">
-        <v>862.0976267974665</v>
+        <v>1314.913844110269</v>
       </c>
       <c r="Y41" t="n">
-        <v>456.7603567523568</v>
+        <v>1314.913844110269</v>
       </c>
     </row>
     <row r="42">
@@ -7464,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C42" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I42" t="n">
-        <v>44.35863542273858</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J42" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K42" t="n">
-        <v>316.0561247023297</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L42" t="n">
-        <v>475.2419029331441</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M42" t="n">
-        <v>475.2419029331441</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N42" t="n">
-        <v>475.2419029331441</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O42" t="n">
-        <v>932.027809635875</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P42" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q42" t="n">
         <v>1845.599623041337</v>
@@ -7518,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7527,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>976.296846493218</v>
+        <v>200.228765334056</v>
       </c>
       <c r="C43" t="n">
-        <v>804.324283372134</v>
+        <v>200.228765334056</v>
       </c>
       <c r="D43" t="n">
-        <v>641.0075104989047</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E43" t="n">
-        <v>474.7993046517582</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F43" t="n">
-        <v>302.9375304263186</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G43" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H43" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K43" t="n">
-        <v>94.40332068498475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L43" t="n">
-        <v>449.0926419794055</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M43" t="n">
-        <v>840.2784369496563</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N43" t="n">
-        <v>1217.769947825692</v>
+        <v>1072.57215219891</v>
       </c>
       <c r="O43" t="n">
-        <v>1573.198076505455</v>
+        <v>1428.000280878673</v>
       </c>
       <c r="P43" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R43" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T43" t="n">
-        <v>1689.211160259174</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U43" t="n">
-        <v>1409.026711759479</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V43" t="n">
-        <v>1409.026711759479</v>
+        <v>823.1906985818778</v>
       </c>
       <c r="W43" t="n">
-        <v>1409.026711759479</v>
+        <v>548.3382947543907</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.462815205284</v>
+        <v>305.7743982001958</v>
       </c>
       <c r="Y43" t="n">
-        <v>1166.462815205284</v>
+        <v>200.228765334056</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>779.133365105843</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>779.133365105843</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>779.133365105843</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>779.133365105843</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>739.1194333973433</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1769.172744187367</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>1190.853363938096</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>779.133365105843</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>779.133365105843</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>486.5295800097868</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>382.6896215250718</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>277.987687798009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>90.28808569851716</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>36.91199246082675</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>44.35863542273859</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>592.3425662998591</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>420.3700031787751</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>420.3700031787751</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>254.1617973316286</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>82.30002310618903</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1283.70370714967</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1008.851303322183</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>782.5085350119248</v>
       </c>
     </row>
   </sheetData>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
-        <v>361.2933355520367</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O20" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>498.9752675705655</v>
+        <v>114.7742293394935</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>183.1929492179946</v>
       </c>
       <c r="L21" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N21" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O21" t="n">
-        <v>375.55972550576</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9556,16 +9558,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>60.65522297608413</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>417.7126065281028</v>
+        <v>42.23240770727544</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9641,19 +9643,19 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L23" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>113.7709881429531</v>
       </c>
       <c r="O23" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P23" t="n">
-        <v>114.0667271187383</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
@@ -9714,31 +9716,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J24" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O24" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
-        <v>190.0864181671782</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>382.656735650205</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9796,7 +9798,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9811,7 +9813,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P25" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
         <v>24.61956276478495</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
-        <v>455.6196014764236</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M26" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>480.7446103807745</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
@@ -9896,7 +9898,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,28 +9950,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>483.9149924745637</v>
+        <v>190.8306636765795</v>
       </c>
       <c r="M27" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>457.0064649527131</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q27" t="n">
         <v>22.7470382889785</v>
@@ -10030,19 +10032,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L28" t="n">
-        <v>380.1908016072373</v>
+        <v>233.526361580185</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>84.64530730648448</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10115,7 +10117,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L29" t="n">
-        <v>499.7119481929572</v>
+        <v>457.4595408934816</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
@@ -10124,16 +10126,16 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O29" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P29" t="n">
-        <v>114.0667271187383</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,7 +10190,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J30" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>483.7991395936675</v>
@@ -10197,13 +10199,13 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
-        <v>23.09678051232798</v>
+        <v>108.5645695103311</v>
       </c>
       <c r="N30" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>465.9293750477951</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
@@ -10212,7 +10214,7 @@
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10273,7 +10275,7 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L31" t="n">
-        <v>132.9935626255638</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M31" t="n">
         <v>417.7126065281028</v>
@@ -10285,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318252</v>
       </c>
       <c r="Q31" t="n">
         <v>24.61956276478495</v>
@@ -10346,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>454.9120992556681</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L32" t="n">
-        <v>499.7119481929572</v>
+        <v>362.3257551502136</v>
       </c>
       <c r="M32" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N32" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O32" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
@@ -10428,19 +10430,19 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>483.7991395936675</v>
+        <v>183.1929492179946</v>
       </c>
       <c r="L33" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>101.0427079326424</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N33" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O33" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P33" t="n">
         <v>21.77084120482866</v>
@@ -10449,7 +10451,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10504,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>60.327324507274</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L34" t="n">
         <v>380.1908016072373</v>
@@ -10516,7 +10518,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521331</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10525,7 +10527,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>458.1670431142372</v>
+        <v>114.80340774113</v>
       </c>
       <c r="M35" t="n">
         <v>498.831168659766</v>
@@ -10598,16 +10600,16 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>37.3909593560241</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P35" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,22 +10667,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>183.1929492179946</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O36" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
-        <v>182.5645565894898</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
         <v>484.1469440493127</v>
@@ -10741,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>60.327324507274</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10826,25 +10828,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>499.7119481929572</v>
+        <v>481.7770299789514</v>
       </c>
       <c r="M38" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N38" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O38" t="n">
-        <v>361.4046720736148</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P38" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>483.7991395936675</v>
+        <v>183.1929492179946</v>
       </c>
       <c r="L39" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N39" t="n">
-        <v>99.28895563385618</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O39" t="n">
         <v>23.17188972222222</v>
@@ -10920,10 +10922,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10990,10 +10992,10 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>402.0534574160406</v>
+        <v>84.64530730648401</v>
       </c>
       <c r="O40" t="n">
-        <v>64.1093491866089</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
         <v>315.9153581548562</v>
@@ -11063,10 +11065,10 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>38.31204243262292</v>
+        <v>457.4595408934816</v>
       </c>
       <c r="M41" t="n">
-        <v>114.6301304286942</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
@@ -11075,13 +11077,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3088020988906</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N42" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O42" t="n">
-        <v>484.5717954825564</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q42" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11218,7 +11220,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11227,16 +11229,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N43" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521331</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
-        <v>297.533877966958</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11294,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
@@ -11312,13 +11314,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>112.2315174240587</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
@@ -11385,19 +11387,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385629</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11455,22 +11457,22 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>22.49918749842445</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>22.38080065798648</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q46" t="n">
         <v>24.61956276478495</v>
@@ -23969,25 +23971,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>310.4952950752768</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>222.576950487138</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24127,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>54.74933787321778</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>130.8329258484582</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
         <v>277.3826040146988</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24215,10 +24217,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.6542752992984</v>
       </c>
       <c r="G23" t="n">
-        <v>397.3000664371293</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
         <v>294.8896947407055</v>
@@ -24367,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>60.22808526200761</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>400.2956717864458</v>
+        <v>328.524347795502</v>
       </c>
       <c r="H26" t="n">
         <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24500,13 +24502,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>200.7110525991307</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>42.87197949322127</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>100.2638647521067</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>235.9640587664848</v>
       </c>
       <c r="G29" t="n">
-        <v>169.8064453853941</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24737,7 +24739,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24746,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24841,19 +24843,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>131.9902744829749</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>56.67644152230633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24920,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>167.1489695386227</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.1182921291979</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>218.7163152458132</v>
@@ -24983,7 +24985,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>123.6805547492804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25132,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>123.6805547492808</v>
       </c>
       <c r="W34" t="n">
         <v>272.1038797892121</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.0795740109682</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
@@ -25205,7 +25207,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U35" t="n">
         <v>255.7713603095518</v>
@@ -25214,13 +25216,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>286.1082096677493</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25357,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>202.1352071934361</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>272.1038797892121</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>387.0094653706421</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25439,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>23.98687180936147</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25546,13 +25548,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>78.16377134569274</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25561,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>77.00642271117594</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,16 +25602,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25625,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -25685,16 +25687,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>180.2777794901682</v>
+        <v>324.2866569715036</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>86.08137614201803</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>119.589164089677</v>
       </c>
     </row>
     <row r="44">
@@ -25874,13 +25876,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>420.8729399924937</v>
+        <v>381.259147601079</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>34.5479025439635</v>
@@ -25919,16 +25921,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -25941,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,25 +25994,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>119.6602496698015</v>
       </c>
       <c r="H46" t="n">
         <v>142.3583058069271</v>
@@ -26077,19 +26079,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466348.4481653878</v>
+        <v>466348.4481653879</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>466348.4481653879</v>
+        <v>466348.4481653878</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466348.448165388</v>
+        <v>466348.4481653879</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466348.448165388</v>
+        <v>466348.4481653878</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>466348.4481653879</v>
+        <v>466348.4481653878</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>60870.09540019949</v>
+        <v>466348.4481653878</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9817.757322612815</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="C2" t="n">
         <v>9817.757322612817</v>
@@ -26320,40 +26322,40 @@
         <v>9817.757322612817</v>
       </c>
       <c r="E2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612813</v>
       </c>
       <c r="F2" t="n">
         <v>9817.757322612817</v>
       </c>
       <c r="G2" t="n">
-        <v>9817.757322612817</v>
+        <v>9817.757322612813</v>
       </c>
       <c r="H2" t="n">
-        <v>75174.68485363956</v>
+        <v>75174.68485363954</v>
       </c>
       <c r="I2" t="n">
-        <v>75174.68485363957</v>
+        <v>75174.6848536395</v>
       </c>
       <c r="J2" t="n">
         <v>75174.68485363951</v>
       </c>
       <c r="K2" t="n">
-        <v>75174.68485363956</v>
+        <v>75174.68485363953</v>
       </c>
       <c r="L2" t="n">
-        <v>75174.68485363956</v>
+        <v>75174.68485363954</v>
       </c>
       <c r="M2" t="n">
+        <v>75174.68485363953</v>
+      </c>
+      <c r="N2" t="n">
         <v>75174.68485363954</v>
-      </c>
-      <c r="N2" t="n">
-        <v>75174.68485363958</v>
       </c>
       <c r="O2" t="n">
         <v>75174.68485363954</v>
       </c>
       <c r="P2" t="n">
-        <v>9817.757322612819</v>
+        <v>75174.68485363956</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>109062.9413241932</v>
       </c>
     </row>
     <row r="4">
@@ -26433,16 +26435,16 @@
         <v>1963.551464522563</v>
       </c>
       <c r="H4" t="n">
-        <v>15700.44267092141</v>
+        <v>15700.4426709214</v>
       </c>
       <c r="I4" t="n">
-        <v>15700.44267092141</v>
+        <v>15700.4426709214</v>
       </c>
       <c r="J4" t="n">
         <v>15700.44267092141</v>
       </c>
       <c r="K4" t="n">
-        <v>15700.4426709214</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="L4" t="n">
         <v>15700.44267092141</v>
@@ -26457,7 +26459,7 @@
         <v>15700.44267092141</v>
       </c>
       <c r="P4" t="n">
-        <v>1963.551464522563</v>
+        <v>15700.44267092141</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>28053.11427022831</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-25773.39414190975</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.205858090254</v>
+        <v>7854.20585809025</v>
       </c>
       <c r="F6" t="n">
         <v>7854.205858090254</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.205858090254</v>
+        <v>7854.20585809025</v>
       </c>
       <c r="H6" t="n">
-        <v>-93068.71926080019</v>
+        <v>-93068.71926080018</v>
       </c>
       <c r="I6" t="n">
-        <v>31421.12791248985</v>
+        <v>31421.12791248978</v>
       </c>
       <c r="J6" t="n">
-        <v>31421.12791248979</v>
+        <v>31421.1279124898</v>
       </c>
       <c r="K6" t="n">
-        <v>31421.12791248984</v>
+        <v>31421.12791248981</v>
       </c>
       <c r="L6" t="n">
-        <v>31421.12791248983</v>
+        <v>31421.12791248982</v>
       </c>
       <c r="M6" t="n">
         <v>31421.12791248981</v>
       </c>
       <c r="N6" t="n">
-        <v>31421.12791248986</v>
+        <v>31421.12791248982</v>
       </c>
       <c r="O6" t="n">
-        <v>31421.12791248981</v>
+        <v>31421.12791248982</v>
       </c>
       <c r="P6" t="n">
-        <v>7854.205858090256</v>
+        <v>-77641.81341170338</v>
       </c>
     </row>
   </sheetData>
@@ -26805,31 +26807,31 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27027,7 +27029,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N20" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>461.3999057603342</v>
+        <v>77.1988675292622</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="L21" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N21" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O21" t="n">
-        <v>352.3878357835378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R21" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K22" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781578962</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,22 +36360,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L23" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="O23" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P23" t="n">
-        <v>76.49136530850697</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O24" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P24" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>359.9096973612264</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36531,7 +36533,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P25" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3999057603342</v>
+        <v>168.31557696235</v>
       </c>
       <c r="M27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>435.2356237478845</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>358.2720417115361</v>
+        <v>211.6076016844838</v>
       </c>
       <c r="M28" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>63.89640633088408</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O28" t="n">
         <v>359.0183117977405</v>
@@ -36835,25 +36837,25 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O29" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P29" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>85.46778899800312</v>
       </c>
       <c r="N30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>442.7574853255729</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36932,7 +36934,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36993,7 +36995,7 @@
         <v>228.8157587937749</v>
       </c>
       <c r="L31" t="n">
-        <v>111.0748027298626</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M31" t="n">
         <v>395.137166636617</v>
@@ -37005,7 +37007,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519604</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,22 +37068,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>461.3999057603342</v>
+        <v>324.0137127175906</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -37148,28 +37150,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>77.94592742031439</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>39.69056852337214</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L34" t="n">
         <v>358.2720417115361</v>
@@ -37236,7 +37238,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N34" t="n">
-        <v>381.3045564404402</v>
+        <v>5.824357619612921</v>
       </c>
       <c r="O34" t="n">
         <v>359.0183117977405</v>
@@ -37245,7 +37247,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,25 +37311,25 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>419.8550006816142</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="M35" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q35" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,25 +37387,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>160.7937153846612</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>39.69056852337214</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37546,25 +37548,25 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>461.3999057603342</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="M38" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>324.0137127175907</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="L39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N39" t="n">
-        <v>77.9459274203145</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,10 +37712,10 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>63.89640633088362</v>
       </c>
       <c r="O40" t="n">
-        <v>41.61016168818445</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
         <v>293.5345574968697</v>
@@ -37780,13 +37782,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="M41" t="n">
-        <v>77.19886752926243</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37795,13 +37797,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>160.7937153846611</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O42" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -37947,16 +37949,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N43" t="n">
-        <v>381.3045564404402</v>
+        <v>5.824357619612921</v>
       </c>
       <c r="O43" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P43" t="n">
-        <v>275.1530773089715</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38034,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>77.1988675292622</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38105,19 +38107,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-18148.64551712239</v>
+        <v>-27415.2664622081</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24061417.37221273</v>
+        <v>23394577.99326134</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14486812.97423427</v>
+        <v>13833243.698924</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3181848.49574796</v>
+        <v>3515122.145089799</v>
       </c>
     </row>
     <row r="11">
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>173.3751052395206</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>127.6377393258621</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>116.3308444476703</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>102.8015588998678</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>103.6549143897921</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.70937201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>93.11323406457203</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>140.4611363452985</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>182.9205141195597</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>161.8425727710037</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>138.2959597602405</v>
       </c>
     </row>
     <row r="19">
@@ -2013,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>138.9326300671235</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="20">
@@ -2080,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
         <v>419.0596946068497</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>110.377644917217</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>314.5431410865945</v>
       </c>
       <c r="H20" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2244,22 +2244,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>106.9342672712792</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.2183622117193</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>240.1382575886529</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8.218664693195375</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>199.0665466414822</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2414,7 +2414,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H24" t="n">
-        <v>52.84233230531348</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
@@ -2493,10 +2493,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>152.8738395770025</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>65.7695357349571</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y25" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2557,25 +2557,25 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>71.77132399094387</v>
+        <v>123.0499885165865</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>118.8116256512757</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2794,16 +2794,16 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>184.9088812260089</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>98.4158820019983</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2888,7 +2888,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H30" t="n">
-        <v>52.84233230531351</v>
+        <v>52.8423323053137</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>42.09444105482045</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>32.55584930570005</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>420.8729399924937</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>20.77140261150761</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>141.2799768251516</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>51.02216885981873</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
@@ -3207,7 +3207,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,16 +3240,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>155.2137979687706</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3274,16 +3274,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>106.3192265349073</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>149.4121237100671</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>137.5416296800494</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
@@ -3444,7 +3444,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
-        <v>65.7695357349571</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y37" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>80.25104378413117</v>
       </c>
       <c r="C38" t="n">
-        <v>35.62225731619074</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3562,16 +3562,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>92.08906614418041</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>131.0150252707982</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V40" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3751,13 +3751,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>291.6452293200082</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>29.62786375350941</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>60.76165864186884</v>
       </c>
       <c r="U43" t="n">
         <v>277.3826040146988</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>104.4901765374784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,19 +3979,19 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>39.61379239141474</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.8896947407055</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>27.70052815057359</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>44.93415033890867</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>178.3311419592672</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>969.9277929827292</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>969.9277929827292</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>794.8014240539205</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>794.8014240539205</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>369.6772422433207</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>969.9277929827292</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>969.9277929827292</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>969.9277929827292</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>44.35863542273858</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>772.8420314050605</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1658.225019761719</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1378.040571262023</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1096.329103870052</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>821.4767000425647</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>578.9128034883698</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>352.5700351781119</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>904.4624336817719</v>
+        <v>1204.82568779444</v>
       </c>
       <c r="C20" t="n">
-        <v>904.4624336817719</v>
+        <v>777.9249578077402</v>
       </c>
       <c r="D20" t="n">
-        <v>481.1698128667722</v>
+        <v>354.6323369927404</v>
       </c>
       <c r="E20" t="n">
-        <v>481.1698128667722</v>
+        <v>354.6323369927404</v>
       </c>
       <c r="F20" t="n">
-        <v>369.6772422433207</v>
+        <v>354.6323369927404</v>
       </c>
       <c r="G20" t="n">
-        <v>369.6772422433207</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H20" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I20" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J20" t="n">
         <v>399.5154512777223</v>
@@ -5758,10 +5758,10 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L20" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M20" t="n">
-        <v>856.3013579804531</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N20" t="n">
         <v>1313.087264683184</v>
@@ -5770,34 +5770,34 @@
         <v>1313.087264683184</v>
       </c>
       <c r="P20" t="n">
-        <v>1389.514143537154</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="Q20" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U20" t="n">
-        <v>1261.951848555522</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V20" t="n">
-        <v>904.4624336817719</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="W20" t="n">
-        <v>904.4624336817719</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="X20" t="n">
-        <v>904.4624336817719</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="Y20" t="n">
-        <v>904.4624336817719</v>
+        <v>1624.67405208597</v>
       </c>
     </row>
     <row r="21">
@@ -5807,52 +5807,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C21" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D21" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E21" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F21" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G21" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H21" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I21" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J21" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K21" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L21" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M21" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N21" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O21" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P21" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q21" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R21" t="n">
         <v>1845.599623041337</v>
@@ -5861,7 +5861,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U21" t="n">
         <v>1437.627243819906</v>
@@ -5870,13 +5870,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X21" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y21" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>582.9245049325332</v>
+        <v>687.8593711724252</v>
       </c>
       <c r="C22" t="n">
-        <v>410.9519418114492</v>
+        <v>515.8868080513412</v>
       </c>
       <c r="D22" t="n">
-        <v>302.9375304263186</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="E22" t="n">
-        <v>302.9375304263186</v>
+        <v>352.5700351781119</v>
       </c>
       <c r="F22" t="n">
-        <v>302.9375304263186</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G22" t="n">
-        <v>136.6805607205508</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H22" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I22" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J22" t="n">
         <v>94.40332068498475</v>
@@ -5919,13 +5919,13 @@
         <v>675.6202431852428</v>
       </c>
       <c r="M22" t="n">
-        <v>695.0806413228745</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N22" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O22" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P22" t="n">
         <v>1718.599492800575</v>
@@ -5937,25 +5937,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S22" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.643472140915</v>
       </c>
       <c r="T22" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.643472140915</v>
       </c>
       <c r="U22" t="n">
-        <v>1798.56100972851</v>
+        <v>1628.643472140915</v>
       </c>
       <c r="V22" t="n">
-        <v>1516.849542336539</v>
+        <v>1346.932004748944</v>
       </c>
       <c r="W22" t="n">
-        <v>1241.997138509052</v>
+        <v>1346.932004748944</v>
       </c>
       <c r="X22" t="n">
-        <v>999.4332419548567</v>
+        <v>1104.368108194749</v>
       </c>
       <c r="Y22" t="n">
-        <v>773.0904736445988</v>
+        <v>878.0253398844909</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1321.383964622947</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="C23" t="n">
-        <v>894.4832346362471</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="D23" t="n">
-        <v>471.1906138212473</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="E23" t="n">
-        <v>45.21367396910489</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="F23" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G23" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I23" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J23" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K23" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L23" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M23" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N23" t="n">
-        <v>932.0278096358751</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O23" t="n">
-        <v>1388.813716338606</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P23" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q23" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R23" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T23" t="n">
-        <v>1741.232328914477</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U23" t="n">
-        <v>1741.232328914477</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V23" t="n">
-        <v>1741.232328914477</v>
+        <v>1165.241822842501</v>
       </c>
       <c r="W23" t="n">
-        <v>1741.232328914477</v>
+        <v>1165.241822842501</v>
       </c>
       <c r="X23" t="n">
-        <v>1741.232328914477</v>
+        <v>1165.241822842501</v>
       </c>
       <c r="Y23" t="n">
-        <v>1741.232328914477</v>
+        <v>759.9045527973917</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C24" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D24" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E24" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F24" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G24" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H24" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I24" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J24" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K24" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L24" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M24" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N24" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O24" t="n">
-        <v>950.4838058662883</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P24" t="n">
-        <v>1407.269712569019</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q24" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R24" t="n">
         <v>1845.599623041337</v>
@@ -6098,7 +6098,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U24" t="n">
         <v>1437.627243819906</v>
@@ -6107,13 +6107,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X24" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y24" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="25">
@@ -6123,31 +6123,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1120.093114985063</v>
+        <v>876.528278233494</v>
       </c>
       <c r="C25" t="n">
-        <v>948.1205518639796</v>
+        <v>704.55571511241</v>
       </c>
       <c r="D25" t="n">
-        <v>784.8037789907503</v>
+        <v>541.2389422391807</v>
       </c>
       <c r="E25" t="n">
-        <v>618.5955731436038</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F25" t="n">
-        <v>446.7337989181643</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G25" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H25" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J25" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K25" t="n">
         <v>76.20565529896515</v>
@@ -6171,28 +6171,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S25" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T25" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U25" t="n">
-        <v>1845.599623041337</v>
+        <v>1400.80364217966</v>
       </c>
       <c r="V25" t="n">
-        <v>1845.599623041337</v>
+        <v>1119.092174787689</v>
       </c>
       <c r="W25" t="n">
-        <v>1779.165748561582</v>
+        <v>1119.092174787689</v>
       </c>
       <c r="X25" t="n">
-        <v>1536.601852007387</v>
+        <v>876.528278233494</v>
       </c>
       <c r="Y25" t="n">
-        <v>1310.259083697129</v>
+        <v>876.528278233494</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1845.599623041337</v>
+        <v>459.0732886803136</v>
       </c>
       <c r="C26" t="n">
-        <v>1418.698893054637</v>
+        <v>459.0732886803136</v>
       </c>
       <c r="D26" t="n">
-        <v>995.406272239637</v>
+        <v>459.0732886803136</v>
       </c>
       <c r="E26" t="n">
-        <v>569.4293323874946</v>
+        <v>459.0732886803136</v>
       </c>
       <c r="F26" t="n">
-        <v>144.3051505768948</v>
+        <v>459.0732886803136</v>
       </c>
       <c r="G26" t="n">
-        <v>71.80886371735552</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H26" t="n">
-        <v>71.80886371735552</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J26" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L26" t="n">
-        <v>493.6978991635576</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M26" t="n">
-        <v>950.4838058662883</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="N26" t="n">
         <v>1389.514143537154</v>
@@ -6256,22 +6256,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U26" t="n">
-        <v>1845.599623041337</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="V26" t="n">
-        <v>1845.599623041337</v>
+        <v>1267.18463721222</v>
       </c>
       <c r="W26" t="n">
-        <v>1845.599623041337</v>
+        <v>870.7932875125664</v>
       </c>
       <c r="X26" t="n">
-        <v>1845.599623041337</v>
+        <v>459.0732886803136</v>
       </c>
       <c r="Y26" t="n">
-        <v>1845.599623041337</v>
+        <v>459.0732886803136</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C27" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E27" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F27" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J27" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K27" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="L27" t="n">
-        <v>475.2419029331443</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="M27" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N27" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="O27" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P27" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6335,7 +6335,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T27" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U27" t="n">
         <v>1437.627243819906</v>
@@ -6344,13 +6344,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W27" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X27" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y27" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="28">
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>904.815522072847</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C28" t="n">
-        <v>904.815522072847</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D28" t="n">
-        <v>784.8037789907503</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E28" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F28" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G28" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H28" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J28" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K28" t="n">
-        <v>94.40332068498475</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L28" t="n">
-        <v>303.8948463526237</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M28" t="n">
-        <v>695.0806413228745</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N28" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O28" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P28" t="n">
         <v>1718.599492800575</v>
@@ -6408,28 +6408,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R28" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S28" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T28" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U28" t="n">
-        <v>1845.599623041337</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V28" t="n">
-        <v>1563.888155649365</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W28" t="n">
-        <v>1563.888155649365</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X28" t="n">
-        <v>1321.324259095171</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y28" t="n">
-        <v>1094.981490784913</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>662.9245738309462</v>
+        <v>1326.341276929606</v>
       </c>
       <c r="C29" t="n">
-        <v>662.9245738309462</v>
+        <v>899.4405469429066</v>
       </c>
       <c r="D29" t="n">
-        <v>662.9245738309462</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="E29" t="n">
-        <v>662.9245738309462</v>
+        <v>476.1479261279069</v>
       </c>
       <c r="F29" t="n">
         <v>476.1479261279069</v>
       </c>
       <c r="G29" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H29" t="n">
-        <v>71.80886371735552</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J29" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L29" t="n">
-        <v>814.4714747539723</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M29" t="n">
-        <v>814.4714747539723</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N29" t="n">
-        <v>1271.257381456703</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O29" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P29" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q29" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S29" t="n">
-        <v>1845.599623041337</v>
+        <v>1746.189641221137</v>
       </c>
       <c r="T29" t="n">
-        <v>1845.599623041337</v>
+        <v>1746.189641221137</v>
       </c>
       <c r="U29" t="n">
-        <v>1845.599623041337</v>
+        <v>1746.189641221137</v>
       </c>
       <c r="V29" t="n">
-        <v>1488.110208167586</v>
+        <v>1746.189641221137</v>
       </c>
       <c r="W29" t="n">
-        <v>1488.110208167586</v>
+        <v>1746.189641221137</v>
       </c>
       <c r="X29" t="n">
-        <v>1488.110208167586</v>
+        <v>1746.189641221137</v>
       </c>
       <c r="Y29" t="n">
-        <v>1082.772938122476</v>
+        <v>1746.189641221137</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C30" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250717</v>
+        <v>382.689621525072</v>
       </c>
       <c r="E30" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980092</v>
       </c>
       <c r="F30" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809133</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851735</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J30" t="n">
         <v>308.6094817404178</v>
       </c>
       <c r="K30" t="n">
+        <v>308.6094817404178</v>
+      </c>
+      <c r="L30" t="n">
+        <v>308.6094817404178</v>
+      </c>
+      <c r="M30" t="n">
         <v>765.3953884431487</v>
       </c>
-      <c r="L30" t="n">
-        <v>1222.18129514588</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1306.794406253903</v>
-      </c>
       <c r="N30" t="n">
-        <v>1306.794406253903</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O30" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P30" t="n">
-        <v>1763.580312956633</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6572,7 +6572,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T30" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U30" t="n">
         <v>1437.627243819906</v>
@@ -6581,13 +6581,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W30" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X30" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y30" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>814.797042285217</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="C31" t="n">
-        <v>814.797042285217</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="D31" t="n">
-        <v>651.4802694119877</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="E31" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="F31" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G31" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H31" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J31" t="n">
         <v>94.40332068498475</v>
@@ -6633,40 +6633,40 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N31" t="n">
-        <v>1444.297549031529</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O31" t="n">
-        <v>1799.725677711293</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P31" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q31" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T31" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U31" t="n">
-        <v>1565.415174541641</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V31" t="n">
-        <v>1283.70370714967</v>
+        <v>823.1906985818782</v>
       </c>
       <c r="W31" t="n">
-        <v>1283.70370714967</v>
+        <v>548.3382947543912</v>
       </c>
       <c r="X31" t="n">
-        <v>1041.139810595475</v>
+        <v>305.7743982001963</v>
       </c>
       <c r="Y31" t="n">
-        <v>814.797042285217</v>
+        <v>79.43162988993831</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1335.895058869367</v>
+        <v>1186.805282784092</v>
       </c>
       <c r="C32" t="n">
-        <v>908.9943288826676</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="D32" t="n">
-        <v>908.9943288826676</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="E32" t="n">
-        <v>483.0173890305251</v>
+        <v>759.9045527973917</v>
       </c>
       <c r="F32" t="n">
-        <v>57.89320721992533</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G32" t="n">
-        <v>57.89320721992533</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J32" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K32" t="n">
-        <v>36.91199246082673</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L32" t="n">
-        <v>357.6855680512415</v>
+        <v>950.4838058662885</v>
       </c>
       <c r="M32" t="n">
-        <v>814.4714747539723</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N32" t="n">
-        <v>1271.257381456703</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O32" t="n">
-        <v>1728.043288159434</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P32" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q32" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R32" t="n">
         <v>1845.599623041337</v>
@@ -6739,13 +6739,13 @@
         <v>1741.232328914477</v>
       </c>
       <c r="W32" t="n">
-        <v>1741.232328914477</v>
+        <v>1598.525281616344</v>
       </c>
       <c r="X32" t="n">
-        <v>1741.232328914477</v>
+        <v>1186.805282784092</v>
       </c>
       <c r="Y32" t="n">
-        <v>1335.895058869367</v>
+        <v>1186.805282784092</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C33" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D33" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J33" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K33" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L33" t="n">
-        <v>475.2419029331443</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M33" t="n">
-        <v>932.0278096358751</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N33" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O33" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P33" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q33" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6809,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6818,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.1205518639796</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C34" t="n">
-        <v>948.1205518639796</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D34" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E34" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F34" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G34" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H34" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J34" t="n">
         <v>94.40332068498475</v>
@@ -6870,10 +6870,10 @@
         <v>1066.806038155494</v>
       </c>
       <c r="N34" t="n">
-        <v>1072.57215219891</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O34" t="n">
-        <v>1428.000280878673</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P34" t="n">
         <v>1718.599492800575</v>
@@ -6888,22 +6888,22 @@
         <v>1628.425962247645</v>
       </c>
       <c r="T34" t="n">
-        <v>1385.086614473545</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U34" t="n">
-        <v>1104.902165973849</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="V34" t="n">
-        <v>948.1205518639796</v>
+        <v>1346.714494855674</v>
       </c>
       <c r="W34" t="n">
-        <v>948.1205518639796</v>
+        <v>1071.862091028187</v>
       </c>
       <c r="X34" t="n">
-        <v>948.1205518639796</v>
+        <v>1071.862091028187</v>
       </c>
       <c r="Y34" t="n">
-        <v>948.1205518639796</v>
+        <v>1071.862091028187</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1738.206464925269</v>
+        <v>1184.973721788492</v>
       </c>
       <c r="C35" t="n">
-        <v>1311.305734938569</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="D35" t="n">
-        <v>888.013114123569</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E35" t="n">
-        <v>462.0361742714265</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F35" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G35" t="n">
-        <v>36.91199246082673</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J35" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K35" t="n">
-        <v>399.5154512777223</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="L35" t="n">
-        <v>475.2419029331443</v>
+        <v>475.2419029331441</v>
       </c>
       <c r="M35" t="n">
-        <v>932.0278096358751</v>
+        <v>932.027809635875</v>
       </c>
       <c r="N35" t="n">
-        <v>932.0278096358751</v>
+        <v>932.027809635875</v>
       </c>
       <c r="O35" t="n">
         <v>1388.813716338606</v>
@@ -6964,25 +6964,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="U35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="V35" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="W35" t="n">
-        <v>1738.206464925269</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="X35" t="n">
-        <v>1738.206464925269</v>
+        <v>1590.310991833601</v>
       </c>
       <c r="Y35" t="n">
-        <v>1738.206464925269</v>
+        <v>1184.973721788492</v>
       </c>
     </row>
     <row r="36">
@@ -6992,52 +6992,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C36" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E36" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F36" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I36" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J36" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K36" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L36" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M36" t="n">
-        <v>932.0278096358751</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N36" t="n">
-        <v>1388.813716338606</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O36" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511718</v>
       </c>
       <c r="P36" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q36" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R36" t="n">
         <v>1845.599623041337</v>
@@ -7046,7 +7046,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T36" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U36" t="n">
         <v>1437.627243819906</v>
@@ -7055,13 +7055,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W36" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X36" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y36" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1120.093114985063</v>
+        <v>823.9661498017832</v>
       </c>
       <c r="C37" t="n">
-        <v>948.1205518639796</v>
+        <v>823.9661498017832</v>
       </c>
       <c r="D37" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E37" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F37" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G37" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H37" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K37" t="n">
-        <v>76.20565529896515</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L37" t="n">
-        <v>430.8949765933859</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M37" t="n">
-        <v>822.0807715636367</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N37" t="n">
-        <v>1199.572282439673</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O37" t="n">
-        <v>1555.000411119436</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P37" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q37" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R37" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S37" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="U37" t="n">
-        <v>1845.599623041337</v>
+        <v>1348.241513747949</v>
       </c>
       <c r="V37" t="n">
-        <v>1845.599623041337</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="W37" t="n">
-        <v>1779.165748561582</v>
+        <v>1066.530046355978</v>
       </c>
       <c r="X37" t="n">
-        <v>1536.601852007387</v>
+        <v>823.9661498017832</v>
       </c>
       <c r="Y37" t="n">
-        <v>1310.259083697129</v>
+        <v>823.9661498017832</v>
       </c>
     </row>
     <row r="38">
@@ -7150,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>72.8940705579891</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="C38" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="D38" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082673</v>
+        <v>71.80886371735554</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J38" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K38" t="n">
-        <v>36.91199246082673</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L38" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="M38" t="n">
+        <v>399.5154512777223</v>
+      </c>
+      <c r="N38" t="n">
         <v>475.942330131692</v>
       </c>
-      <c r="M38" t="n">
-        <v>932.7282368344228</v>
-      </c>
-      <c r="N38" t="n">
-        <v>932.7282368344228</v>
-      </c>
       <c r="O38" t="n">
-        <v>1389.514143537154</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P38" t="n">
         <v>1389.514143537154</v>
@@ -7201,25 +7201,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T38" t="n">
-        <v>1520.30675795911</v>
+        <v>1624.67405208597</v>
       </c>
       <c r="U38" t="n">
-        <v>1261.951848555522</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="V38" t="n">
-        <v>904.4624336817719</v>
+        <v>1366.319142682382</v>
       </c>
       <c r="W38" t="n">
-        <v>904.4624336817719</v>
+        <v>969.9277929827292</v>
       </c>
       <c r="X38" t="n">
-        <v>492.7424348495192</v>
+        <v>558.2077941504765</v>
       </c>
       <c r="Y38" t="n">
-        <v>492.7424348495192</v>
+        <v>152.8705241053668</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C39" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H39" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273857</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J39" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K39" t="n">
-        <v>475.2419029331443</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L39" t="n">
-        <v>475.2419029331443</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M39" t="n">
-        <v>932.0278096358751</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N39" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O39" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="P39" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q39" t="n">
         <v>1845.599623041337</v>
@@ -7283,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7292,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.139810595475</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="C40" t="n">
-        <v>948.1205518639796</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="D40" t="n">
-        <v>784.8037789907503</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="E40" t="n">
-        <v>618.5955731436038</v>
+        <v>341.1121760507089</v>
       </c>
       <c r="F40" t="n">
-        <v>446.7337989181643</v>
+        <v>169.2504018252693</v>
       </c>
       <c r="G40" t="n">
-        <v>280.4768292123964</v>
+        <v>169.2504018252693</v>
       </c>
       <c r="H40" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J40" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K40" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L40" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M40" t="n">
-        <v>1009.314709931336</v>
+        <v>1066.806038155494</v>
       </c>
       <c r="N40" t="n">
-        <v>1072.57215219891</v>
+        <v>1444.297549031529</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878673</v>
+        <v>1799.725677711293</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S40" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1555.22166195441</v>
       </c>
       <c r="U40" t="n">
-        <v>1565.415174541641</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="V40" t="n">
-        <v>1283.70370714967</v>
+        <v>1275.037213454714</v>
       </c>
       <c r="W40" t="n">
-        <v>1283.70370714967</v>
+        <v>1000.184809627227</v>
       </c>
       <c r="X40" t="n">
-        <v>1041.139810595475</v>
+        <v>757.6209130730325</v>
       </c>
       <c r="Y40" t="n">
-        <v>1041.139810595475</v>
+        <v>531.2781447627746</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1314.913844110269</v>
+        <v>757.4800730402502</v>
       </c>
       <c r="C41" t="n">
-        <v>888.013114123569</v>
+        <v>757.4800730402502</v>
       </c>
       <c r="D41" t="n">
-        <v>888.013114123569</v>
+        <v>757.4800730402502</v>
       </c>
       <c r="E41" t="n">
-        <v>462.0361742714265</v>
+        <v>331.5031331881078</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082673</v>
+        <v>331.5031331881078</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082673</v>
+        <v>331.5031331881078</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
@@ -7417,22 +7417,22 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L41" t="n">
-        <v>1271.257381456703</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="M41" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="N41" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="O41" t="n">
-        <v>1728.043288159434</v>
+        <v>932.7282368344229</v>
       </c>
       <c r="P41" t="n">
-        <v>1728.043288159434</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q41" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R41" t="n">
         <v>1845.599623041337</v>
@@ -7441,22 +7441,22 @@
         <v>1741.232328914477</v>
       </c>
       <c r="T41" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U41" t="n">
-        <v>1741.232328914477</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="V41" t="n">
-        <v>1711.305193809922</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="W41" t="n">
-        <v>1314.913844110269</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="X41" t="n">
-        <v>1314.913844110269</v>
+        <v>1162.81734308536</v>
       </c>
       <c r="Y41" t="n">
-        <v>1314.913844110269</v>
+        <v>757.4800730402502</v>
       </c>
     </row>
     <row r="42">
@@ -7466,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C42" t="n">
-        <v>486.5295800097867</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D42" t="n">
-        <v>382.6896215250717</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980089</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809131</v>
+        <v>184.3418574809132</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851712</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082673</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082673</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J42" t="n">
-        <v>36.91199246082673</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K42" t="n">
-        <v>36.91199246082673</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L42" t="n">
-        <v>36.91199246082673</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M42" t="n">
-        <v>493.6978991635576</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N42" t="n">
-        <v>950.4838058662883</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O42" t="n">
-        <v>1388.813716338606</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P42" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q42" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R42" t="n">
         <v>1845.599623041337</v>
@@ -7520,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7529,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="43">
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>200.228765334056</v>
+        <v>710.2713085277261</v>
       </c>
       <c r="C43" t="n">
-        <v>200.228765334056</v>
+        <v>538.2987454066421</v>
       </c>
       <c r="D43" t="n">
-        <v>36.91199246082673</v>
+        <v>374.9819725334128</v>
       </c>
       <c r="E43" t="n">
-        <v>36.91199246082673</v>
+        <v>208.7737666862663</v>
       </c>
       <c r="F43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="G43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J43" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="K43" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L43" t="n">
-        <v>675.6202431852428</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N43" t="n">
-        <v>1072.57215219891</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O43" t="n">
-        <v>1428.000280878673</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P43" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
@@ -7596,25 +7596,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.425962247645</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T43" t="n">
-        <v>1385.086614473545</v>
+        <v>1737.185596958946</v>
       </c>
       <c r="U43" t="n">
-        <v>1104.902165973849</v>
+        <v>1457.00114845925</v>
       </c>
       <c r="V43" t="n">
-        <v>823.1906985818778</v>
+        <v>1175.289681067279</v>
       </c>
       <c r="W43" t="n">
-        <v>548.3382947543907</v>
+        <v>900.4372772397917</v>
       </c>
       <c r="X43" t="n">
-        <v>305.7743982001958</v>
+        <v>900.4372772397917</v>
       </c>
       <c r="Y43" t="n">
-        <v>200.228765334056</v>
+        <v>900.4372772397917</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>779.133365105843</v>
+        <v>1184.973721788492</v>
       </c>
       <c r="C44" t="n">
-        <v>779.133365105843</v>
+        <v>758.0729918017917</v>
       </c>
       <c r="D44" t="n">
-        <v>779.133365105843</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E44" t="n">
-        <v>779.133365105843</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F44" t="n">
-        <v>739.1194333973433</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G44" t="n">
         <v>334.7803709867919</v>
       </c>
       <c r="H44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I44" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J44" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>399.5154512777223</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="L44" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="M44" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="N44" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="O44" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525203</v>
       </c>
       <c r="P44" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q44" t="n">
-        <v>1769.172744187367</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R44" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1845.599623041337</v>
+        <v>1817.619291576111</v>
       </c>
       <c r="T44" t="n">
-        <v>1845.599623041337</v>
+        <v>1596.693720620744</v>
       </c>
       <c r="U44" t="n">
-        <v>1587.244713637749</v>
+        <v>1596.693720620744</v>
       </c>
       <c r="V44" t="n">
-        <v>1587.244713637749</v>
+        <v>1596.693720620744</v>
       </c>
       <c r="W44" t="n">
-        <v>1190.853363938096</v>
+        <v>1596.693720620744</v>
       </c>
       <c r="X44" t="n">
-        <v>779.133365105843</v>
+        <v>1184.973721788492</v>
       </c>
       <c r="Y44" t="n">
-        <v>779.133365105843</v>
+        <v>1184.973721788492</v>
       </c>
     </row>
     <row r="45">
@@ -7703,52 +7703,52 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>604.035483492282</v>
+        <v>604.0354834922822</v>
       </c>
       <c r="C45" t="n">
-        <v>486.5295800097868</v>
+        <v>486.529580009787</v>
       </c>
       <c r="D45" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250719</v>
       </c>
       <c r="E45" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980091</v>
       </c>
       <c r="F45" t="n">
         <v>184.3418574809132</v>
       </c>
       <c r="G45" t="n">
-        <v>90.28808569851716</v>
+        <v>90.28808569851708</v>
       </c>
       <c r="H45" t="n">
-        <v>36.91199246082675</v>
+        <v>36.9119924608267</v>
       </c>
       <c r="I45" t="n">
-        <v>44.35863542273859</v>
+        <v>44.35863542273854</v>
       </c>
       <c r="J45" t="n">
-        <v>316.0561247023297</v>
+        <v>316.0561247023296</v>
       </c>
       <c r="K45" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>772.8420314050604</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M45" t="n">
-        <v>772.8420314050604</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="N45" t="n">
-        <v>850.0084995511719</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="O45" t="n">
-        <v>850.0084995511719</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P45" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1763.580312956633</v>
+        <v>1763.580312956634</v>
       </c>
       <c r="R45" t="n">
         <v>1845.599623041337</v>
@@ -7757,7 +7757,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1622.395439900269</v>
+        <v>1622.39543990027</v>
       </c>
       <c r="U45" t="n">
         <v>1437.627243819906</v>
@@ -7766,13 +7766,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1036.132727792389</v>
+        <v>1036.13272779239</v>
       </c>
       <c r="X45" t="n">
-        <v>872.6553815590523</v>
+        <v>872.6553815590526</v>
       </c>
       <c r="Y45" t="n">
-        <v>732.9624929123447</v>
+        <v>732.9624929123449</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>592.3425662998591</v>
+        <v>682.2058027941321</v>
       </c>
       <c r="C46" t="n">
-        <v>420.3700031787751</v>
+        <v>510.233239673048</v>
       </c>
       <c r="D46" t="n">
-        <v>420.3700031787751</v>
+        <v>346.9164667998187</v>
       </c>
       <c r="E46" t="n">
-        <v>254.1617973316286</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="F46" t="n">
-        <v>82.30002310618903</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="G46" t="n">
-        <v>36.91199246082673</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="I46" t="n">
-        <v>36.91199246082673</v>
+        <v>36.91199246082674</v>
       </c>
       <c r="J46" t="n">
-        <v>36.91199246082673</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="K46" t="n">
-        <v>263.4395936666639</v>
+        <v>320.9309218908219</v>
       </c>
       <c r="L46" t="n">
-        <v>618.1289149610848</v>
+        <v>675.6202431852428</v>
       </c>
       <c r="M46" t="n">
-        <v>1009.314709931336</v>
+        <v>695.080641322875</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.806220807371</v>
+        <v>1072.572152198911</v>
       </c>
       <c r="O46" t="n">
-        <v>1742.234349487134</v>
+        <v>1428.000280878674</v>
       </c>
       <c r="P46" t="n">
-        <v>1845.599623041337</v>
+        <v>1718.599492800575</v>
       </c>
       <c r="Q46" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S46" t="n">
-        <v>1845.599623041337</v>
+        <v>1628.425962247645</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.599623041337</v>
+        <v>1385.086614473545</v>
       </c>
       <c r="U46" t="n">
-        <v>1565.415174541641</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="V46" t="n">
-        <v>1283.70370714967</v>
+        <v>1104.902165973849</v>
       </c>
       <c r="W46" t="n">
-        <v>1008.851303322183</v>
+        <v>924.769699348327</v>
       </c>
       <c r="X46" t="n">
-        <v>1008.851303322183</v>
+        <v>682.2058027941321</v>
       </c>
       <c r="Y46" t="n">
-        <v>782.5085350119248</v>
+        <v>682.2058027941321</v>
       </c>
     </row>
   </sheetData>
@@ -9163,16 +9163,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L17" t="n">
-        <v>38.31204243262292</v>
+        <v>115.5109099618853</v>
       </c>
       <c r="M17" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N17" t="n">
         <v>37.27962283444602</v>
@@ -9184,7 +9184,7 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
         <v>35.03264989479647</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
@@ -9254,19 +9254,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>21.34302821354166</v>
+        <v>99.28895563385606</v>
       </c>
       <c r="O18" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L19" t="n">
-        <v>21.91875989570122</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N19" t="n">
-        <v>20.74890097560039</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>22.49918749842445</v>
+        <v>299.5718579722078</v>
       </c>
       <c r="P19" t="n">
         <v>22.38080065798648</v>
       </c>
       <c r="Q19" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9406,25 +9406,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M20" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N20" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
         <v>37.3909593560241</v>
       </c>
       <c r="P20" t="n">
-        <v>114.7742293394935</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q20" t="n">
-        <v>496.8170781441769</v>
+        <v>455.2721730654569</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9482,28 +9482,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>183.1929492179946</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q21" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9567,7 +9567,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>42.23240770727544</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N22" t="n">
         <v>402.0534574160406</v>
@@ -9640,7 +9640,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>497.1645065551435</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L23" t="n">
         <v>38.31204243262292</v>
@@ -9649,19 +9649,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N23" t="n">
-        <v>113.7709881429531</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O23" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P23" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
@@ -9728,16 +9728,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>484.5717954825564</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P24" t="n">
-        <v>483.1707469651628</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q24" t="n">
-        <v>382.656735650205</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R24" t="n">
         <v>106.5207073584907</v>
@@ -9798,7 +9798,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K25" t="n">
-        <v>60.65522297608414</v>
+        <v>60.65522297608413</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L26" t="n">
-        <v>499.7119481929571</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M26" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N26" t="n">
-        <v>480.7446103807745</v>
+        <v>114.4784903637085</v>
       </c>
       <c r="O26" t="n">
         <v>37.3909593560241</v>
@@ -9950,7 +9950,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
@@ -9959,25 +9959,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L27" t="n">
-        <v>190.8306636765795</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>484.4966862726621</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738758</v>
+        <v>99.28895563385618</v>
       </c>
       <c r="O27" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P27" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10035,16 +10035,16 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>20.964654452712</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
-        <v>233.526361580185</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M28" t="n">
         <v>417.7126065281028</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O28" t="n">
         <v>381.5174992961649</v>
@@ -10114,28 +10114,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>457.4595408934816</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>498.6795285947802</v>
+        <v>114.4784903637085</v>
       </c>
       <c r="O29" t="n">
-        <v>498.7908651163582</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,16 +10193,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L30" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>108.5645695103311</v>
+        <v>484.4966862726622</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>189.6586051758914</v>
       </c>
       <c r="O30" t="n">
         <v>484.5717954825564</v>
@@ -10211,10 +10211,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10281,16 +10281,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N31" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O31" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>68.71811917318252</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K32" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L32" t="n">
-        <v>362.3257551502136</v>
+        <v>499.7119481929572</v>
       </c>
       <c r="M32" t="n">
-        <v>498.831168659766</v>
+        <v>480.1887482250049</v>
       </c>
       <c r="N32" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O32" t="n">
-        <v>498.7908651163582</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P32" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q32" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R32" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,16 +10430,16 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
-        <v>183.1929492179946</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L33" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726621</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N33" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
         <v>23.17188972222222</v>
@@ -10451,7 +10451,7 @@
         <v>484.1469440493127</v>
       </c>
       <c r="R33" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10518,7 +10518,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N34" t="n">
-        <v>26.57325859521331</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O34" t="n">
         <v>381.5174992961649</v>
@@ -10588,10 +10588,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>35.76460079480934</v>
+        <v>112.2559661033163</v>
       </c>
       <c r="L35" t="n">
-        <v>114.80340774113</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>498.831168659766</v>
@@ -10600,10 +10600,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
-        <v>498.7908651163582</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P35" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q35" t="n">
         <v>36.12467460459804</v>
@@ -10667,28 +10667,28 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>183.1929492179946</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>101.1178171425367</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q36" t="n">
         <v>484.1469440493127</v>
       </c>
       <c r="R36" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K37" t="n">
-        <v>60.65522297608414</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10755,7 +10755,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N37" t="n">
-        <v>402.0534574160406</v>
+        <v>26.57325859521377</v>
       </c>
       <c r="O37" t="n">
         <v>381.5174992961649</v>
@@ -10764,7 +10764,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,25 +10822,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L38" t="n">
-        <v>481.7770299789514</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>114.4784903637084</v>
       </c>
       <c r="O38" t="n">
-        <v>498.7908651163582</v>
+        <v>498.7908651163583</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10904,25 +10904,25 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>183.1929492179946</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L39" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M39" t="n">
-        <v>484.4966862726621</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068834</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651629</v>
       </c>
       <c r="Q39" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -10980,7 +10980,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K40" t="n">
         <v>249.7804132464869</v>
@@ -10992,16 +10992,16 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
-        <v>84.64530730648401</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O40" t="n">
         <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>68.71811917318276</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11065,10 +11065,10 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L41" t="n">
-        <v>457.4595408934816</v>
+        <v>115.5109099618853</v>
       </c>
       <c r="M41" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
         <v>37.27962283444602</v>
@@ -11077,13 +11077,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,34 +11135,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M42" t="n">
-        <v>484.4966862726621</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738758</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>465.9293750477955</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P42" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R42" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
         <v>249.7804132464869</v>
@@ -11226,10 +11226,10 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M43" t="n">
-        <v>417.7126065281028</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N43" t="n">
-        <v>26.57325859521331</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
         <v>381.5174992961649</v>
@@ -11238,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11299,10 +11299,10 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>455.6196014764236</v>
       </c>
       <c r="L44" t="n">
-        <v>499.7119481929571</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M44" t="n">
         <v>37.43126289943181</v>
@@ -11314,13 +11314,13 @@
         <v>37.3909593560241</v>
       </c>
       <c r="P44" t="n">
-        <v>498.9752675705654</v>
+        <v>498.9752675705655</v>
       </c>
       <c r="Q44" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>112.2315174240587</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11381,19 +11381,19 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>101.0427079326425</v>
       </c>
       <c r="N45" t="n">
-        <v>99.28895563385629</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P45" t="n">
-        <v>483.1707469651628</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>484.1469440493127</v>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>20.63675598390187</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
         <v>249.7804132464869</v>
@@ -11463,7 +11463,7 @@
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>417.7126065281028</v>
+        <v>42.2324077072759</v>
       </c>
       <c r="N46" t="n">
         <v>402.0534574160406</v>
@@ -11472,10 +11472,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7901678844535</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.61956276478495</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23737,22 +23737,22 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>245.6845893673291</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>103.323621185591</v>
       </c>
       <c r="T17" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>127.6377393258621</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>116.3308444476703</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>102.8015588998678</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>103.6549143897921</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>92.70937201392488</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>93.11323406457203</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>52.84233230531351</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23861,25 +23861,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>80.51100496435802</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>140.4611363452985</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>182.9205141195597</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>194.556163395115</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>161.8425727710037</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>138.2959597602405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23901,13 +23901,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>101.9733242292355</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>310.4952950752768</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>85.75253069985132</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>54.74933787321778</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0.2153347943372239</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F23" t="n">
-        <v>412.6542752992984</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H23" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>34.5479025439635</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>154.8479740835308</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24274,7 +24274,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>124.5087644376962</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>206.334344054255</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="26">
@@ -24445,25 +24445,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G26" t="n">
-        <v>328.524347795502</v>
+        <v>277.2456832698593</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="C28" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>42.87197949322127</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,16 +24682,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>235.9640587664848</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>103.323621185591</v>
+        <v>4.907739183592696</v>
       </c>
       <c r="T29" t="n">
         <v>218.7163152458132</v>
@@ -24739,7 +24739,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
         <v>392.4274362026566</v>
@@ -24748,7 +24748,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>146.1698679701245</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>131.9902744829749</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
-        <v>274.1182921291979</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>34.5479025439635</v>
@@ -24979,13 +24979,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>251.147459377505</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>137.2421401651263</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,16 +25128,16 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>123.6805547492808</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -25162,16 +25162,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25204,7 +25204,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>218.7163152458132</v>
@@ -25216,13 +25216,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>286.1082096677493</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>258.1906751338631</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>24.14197546444763</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>206.334344054255</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>335.3988368644835</v>
       </c>
       <c r="C38" t="n">
-        <v>387.0094653706421</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
@@ -25411,7 +25411,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>78.16377134569274</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>11.34328053612896</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,7 +25630,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H41" t="n">
-        <v>294.8896947407055</v>
+        <v>3.244465420697338</v>
       </c>
       <c r="I41" t="n">
         <v>34.5479025439635</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>324.2866569715036</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>180.1442956544902</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>119.589164089677</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,19 +25867,19 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>381.259147601079</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>75.6230930350174</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>119.6602496698015</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>93.77273782994493</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60870.09540019949</v>
+        <v>466348.448165388</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>466348.4481653879</v>
+        <v>466348.4481653878</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>466348.4481653878</v>
+        <v>466348.448165388</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>466348.4481653879</v>
+        <v>466348.4481653878</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>466348.4481653878</v>
+        <v>466348.4481653879</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>466348.4481653878</v>
+        <v>466348.4481653879</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>9817.757322612817</v>
       </c>
       <c r="E2" t="n">
-        <v>9817.757322612813</v>
+        <v>9817.757322612817</v>
       </c>
       <c r="F2" t="n">
         <v>9817.757322612817</v>
       </c>
       <c r="G2" t="n">
-        <v>9817.757322612813</v>
+        <v>75174.68485363958</v>
       </c>
       <c r="H2" t="n">
         <v>75174.68485363954</v>
       </c>
       <c r="I2" t="n">
-        <v>75174.6848536395</v>
+        <v>75174.68485363956</v>
       </c>
       <c r="J2" t="n">
-        <v>75174.68485363951</v>
+        <v>75174.68485363958</v>
       </c>
       <c r="K2" t="n">
-        <v>75174.68485363953</v>
+        <v>75174.68485363957</v>
       </c>
       <c r="L2" t="n">
-        <v>75174.68485363954</v>
+        <v>75174.68485363956</v>
       </c>
       <c r="M2" t="n">
-        <v>75174.68485363953</v>
+        <v>75174.68485363957</v>
       </c>
       <c r="N2" t="n">
-        <v>75174.68485363954</v>
+        <v>75174.68485363956</v>
       </c>
       <c r="O2" t="n">
-        <v>75174.68485363954</v>
+        <v>75174.68485363957</v>
       </c>
       <c r="P2" t="n">
-        <v>75174.68485363956</v>
+        <v>75174.68485363957</v>
       </c>
     </row>
     <row r="3">
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>126462.7931703212</v>
       </c>
       <c r="H3" t="n">
-        <v>124489.84717329</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>111036.3487211302</v>
       </c>
       <c r="P3" t="n">
-        <v>109062.9413241932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,13 +26432,13 @@
         <v>1963.551464522563</v>
       </c>
       <c r="G4" t="n">
-        <v>1963.551464522563</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="H4" t="n">
-        <v>15700.4426709214</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="I4" t="n">
-        <v>15700.4426709214</v>
+        <v>15700.44267092141</v>
       </c>
       <c r="J4" t="n">
         <v>15700.44267092141</v>
@@ -26484,34 +26484,34 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="H5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="I5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
       <c r="P5" t="n">
-        <v>28053.11427022831</v>
+        <v>28053.11427022832</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="C6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="D6" t="n">
-        <v>-25773.39414190975</v>
+        <v>-27131.32323871153</v>
       </c>
       <c r="E6" t="n">
-        <v>7854.20585809025</v>
+        <v>6496.276761288475</v>
       </c>
       <c r="F6" t="n">
-        <v>7854.205858090254</v>
+        <v>6496.276761288475</v>
       </c>
       <c r="G6" t="n">
-        <v>7854.20585809025</v>
+        <v>-95746.02507932288</v>
       </c>
       <c r="H6" t="n">
-        <v>-93068.71926080018</v>
+        <v>30716.7680909983</v>
       </c>
       <c r="I6" t="n">
-        <v>31421.12791248978</v>
+        <v>30716.76809099832</v>
       </c>
       <c r="J6" t="n">
-        <v>31421.1279124898</v>
+        <v>30716.76809099835</v>
       </c>
       <c r="K6" t="n">
-        <v>31421.12791248981</v>
+        <v>30716.76809099833</v>
       </c>
       <c r="L6" t="n">
-        <v>31421.12791248982</v>
+        <v>30716.76809099832</v>
       </c>
       <c r="M6" t="n">
-        <v>31421.12791248981</v>
+        <v>30716.76809099833</v>
       </c>
       <c r="N6" t="n">
-        <v>31421.12791248982</v>
+        <v>30716.76809099832</v>
       </c>
       <c r="O6" t="n">
-        <v>31421.12791248982</v>
+        <v>-80319.58063013187</v>
       </c>
       <c r="P6" t="n">
-        <v>-77641.81341170338</v>
+        <v>30716.76809099833</v>
       </c>
     </row>
   </sheetData>
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="I4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
     </row>
   </sheetData>
@@ -27026,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="H4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27050,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P4" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,16 +35883,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35904,7 +35904,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,19 +35974,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>77.94592742031439</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>277.0726704737833</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M20" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N20" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>77.1988675292622</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>460.6924035395789</v>
+        <v>419.1474984608589</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>160.7937153846612</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q21" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36287,7 +36287,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M22" t="n">
-        <v>19.65696781578962</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N22" t="n">
         <v>381.3045564404402</v>
@@ -36360,7 +36360,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>461.3999057603341</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36369,19 +36369,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>76.49136530850708</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36448,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P24" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q24" t="n">
-        <v>359.9096973612264</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R24" t="n">
         <v>82.84778796434657</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M26" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N26" t="n">
-        <v>443.4649875463285</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
@@ -36679,25 +36679,25 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>168.31557696235</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P27" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,16 +36755,16 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L28" t="n">
-        <v>211.6076016844838</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M28" t="n">
         <v>395.137166636617</v>
       </c>
       <c r="N28" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O28" t="n">
         <v>359.0183117977405</v>
@@ -36834,28 +36834,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L29" t="n">
-        <v>419.1474984608586</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>461.3999057603341</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="O29" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>85.46778899800312</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>168.3155769623498</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37001,16 +37001,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N31" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O31" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>46.33731851519604</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L32" t="n">
-        <v>324.0137127175906</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M32" t="n">
-        <v>461.3999057603341</v>
+        <v>442.7574853255731</v>
       </c>
       <c r="N32" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,16 +37150,16 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K33" t="n">
-        <v>160.7937153846612</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N33" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37238,7 +37238,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N34" t="n">
-        <v>5.824357619612921</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O34" t="n">
         <v>359.0183117977405</v>
@@ -37308,22 +37308,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>76.49136530850691</v>
       </c>
       <c r="L35" t="n">
-        <v>76.49136530850708</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P35" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>160.7937153846612</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q36" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K37" t="n">
-        <v>39.69056852337214</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L37" t="n">
         <v>358.2720417115361</v>
@@ -37475,7 +37475,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N37" t="n">
-        <v>381.3045564404402</v>
+        <v>5.82435761961338</v>
       </c>
       <c r="O37" t="n">
         <v>359.0183117977405</v>
@@ -37484,7 +37484,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,25 +37542,25 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>443.4649875463285</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>77.19886752926237</v>
       </c>
       <c r="O38" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37624,25 +37624,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K39" t="n">
+        <v>461.3999057603342</v>
+      </c>
+      <c r="L39" t="n">
+        <v>461.3999057603342</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>160.7937153846612</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>461.3999057603341</v>
-      </c>
-      <c r="N39" t="n">
-        <v>461.3999057603341</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K40" t="n">
         <v>228.8157587937749</v>
@@ -37712,16 +37712,16 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>63.89640633088362</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
       </c>
       <c r="P40" t="n">
-        <v>293.5345574968697</v>
+        <v>46.33731851519627</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L41" t="n">
-        <v>419.1474984608586</v>
+        <v>77.19886752926243</v>
       </c>
       <c r="M41" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37797,13 +37797,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M42" t="n">
-        <v>461.3999057603341</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>442.7574853255733</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>228.8157587937749</v>
@@ -37946,10 +37946,10 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M43" t="n">
-        <v>395.137166636617</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N43" t="n">
-        <v>5.824357619612921</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O43" t="n">
         <v>359.0183117977405</v>
@@ -37958,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,10 +38019,10 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>419.8550006816142</v>
       </c>
       <c r="L44" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38034,13 +38034,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="Q44" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>77.1988675292622</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>77.9459274203145</v>
       </c>
       <c r="N45" t="n">
-        <v>77.94592742031462</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>461.3999057603341</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>461.3999057603341</v>
+        <v>461.3999057603342</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>58.07204871127072</v>
       </c>
       <c r="K46" t="n">
         <v>228.8157587937749</v>
@@ -38183,7 +38183,7 @@
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>395.137166636617</v>
+        <v>19.65696781579008</v>
       </c>
       <c r="N46" t="n">
         <v>381.3045564404402</v>
@@ -38192,10 +38192,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P46" t="n">
-        <v>104.409367226467</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
